--- a/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D700378-4B28-4346-A909-7658F0E3C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A821325-6444-4E7B-89FA-E1DA0482512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{766D2C04-A22F-44E6-B630-C3248BEE1553}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C819D5EA-03BC-4BD0-B629-2F498BDDCBC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>51,07%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
     <t>70,76%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>5,75%</t>
   </si>
   <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
     <t>57,59%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>48,84%</t>
   </si>
   <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
     <t>70,99%</t>
   </si>
   <si>
@@ -572,6 +572,48 @@
     <t>4,96%</t>
   </si>
   <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
     <t>58,0%</t>
   </si>
   <si>
@@ -626,48 +668,6 @@
     <t>47,3%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
     <t>71,71%</t>
   </si>
   <si>
@@ -773,6 +773,60 @@
     <t>12,79%</t>
   </si>
   <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
     <t>60,58%</t>
   </si>
   <si>
@@ -825,60 +879,6 @@
   </si>
   <si>
     <t>41,81%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
   </si>
   <si>
     <t>68,98%</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECABDF4-1ACE-4E2E-9A92-7DAAB87D3EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753B87E1-702D-4701-9990-473468BCADC6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D7" s="7">
-        <v>155702</v>
+        <v>142807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1612,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I7" s="7">
-        <v>129705</v>
+        <v>131012</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1627,10 +1627,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="N7" s="7">
-        <v>285406</v>
+        <v>273820</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1648,10 +1648,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>125796</v>
+        <v>75234</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1663,10 +1663,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>135207</v>
+        <v>74210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1678,10 +1678,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="N8" s="7">
-        <v>261004</v>
+        <v>149443</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1714,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>264912</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1729,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>815</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>546410</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1752,10 +1752,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7">
-        <v>142807</v>
+        <v>155702</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1767,10 +1767,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" s="7">
-        <v>131012</v>
+        <v>129705</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1782,10 +1782,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="N10" s="7">
-        <v>273820</v>
+        <v>285406</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1803,10 +1803,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>75234</v>
+        <v>125796</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1818,10 +1818,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>74210</v>
+        <v>135207</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1833,10 +1833,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="N11" s="7">
-        <v>149443</v>
+        <v>261004</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1854,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1869,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>264912</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1884,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>815</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>546410</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B068BE-9D49-4D8C-8365-40A673334A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877B465B-2723-4AEF-99EE-2432B32FEDB2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D7" s="7">
-        <v>156102</v>
+        <v>147698</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2358,10 +2358,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I7" s="7">
-        <v>131478</v>
+        <v>145109</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2373,10 +2373,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N7" s="7">
-        <v>287580</v>
+        <v>292807</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2394,10 +2394,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>114956</v>
+        <v>93548</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2409,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>124933</v>
+        <v>84363</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2424,10 +2424,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>239889</v>
+        <v>177911</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2445,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>271058</v>
+        <v>241246</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2460,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2475,10 +2475,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>527469</v>
+        <v>470718</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2498,10 +2498,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="D10" s="7">
-        <v>147698</v>
+        <v>156102</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2513,10 +2513,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="I10" s="7">
-        <v>145109</v>
+        <v>131478</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2528,10 +2528,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="N10" s="7">
-        <v>292807</v>
+        <v>287580</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2549,10 +2549,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>93548</v>
+        <v>114956</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2564,10 +2564,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>84363</v>
+        <v>124933</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2579,10 +2579,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="N11" s="7">
-        <v>177911</v>
+        <v>239889</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2600,10 +2600,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D12" s="7">
-        <v>241246</v>
+        <v>271058</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2615,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2630,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>764</v>
       </c>
       <c r="N12" s="7">
-        <v>470718</v>
+        <v>527469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2662,7 +2662,7 @@
         <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>143</v>
@@ -2716,7 +2716,7 @@
         <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -2816,7 +2816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B862ED-0DAF-4108-8A72-DCFC5825B730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B91F179-45BB-42DD-8547-8232018C3FBD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3089,10 +3089,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7">
-        <v>163342</v>
+        <v>164087</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3104,34 +3104,34 @@
         <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I7" s="7">
-        <v>148007</v>
+        <v>149058</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>473</v>
+      </c>
+      <c r="N7" s="7">
+        <v>313145</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="7">
-        <v>426</v>
-      </c>
-      <c r="N7" s="7">
-        <v>311348</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,49 +3140,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>118287</v>
+        <v>85965</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7">
+        <v>86275</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="7">
-        <v>169</v>
-      </c>
-      <c r="I8" s="7">
-        <v>119763</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
+        <v>250</v>
+      </c>
+      <c r="N8" s="7">
+        <v>172240</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="7">
-        <v>330</v>
-      </c>
-      <c r="N8" s="7">
-        <v>238051</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3206,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3221,10 +3221,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3244,49 +3244,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7">
-        <v>164087</v>
+        <v>163342</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="7">
+        <v>206</v>
+      </c>
+      <c r="I10" s="7">
+        <v>148007</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>426</v>
+      </c>
+      <c r="N10" s="7">
+        <v>311348</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="7">
-        <v>230</v>
-      </c>
-      <c r="I10" s="7">
-        <v>149058</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M10" s="7">
-        <v>473</v>
-      </c>
-      <c r="N10" s="7">
-        <v>313145</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,43 +3295,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7">
-        <v>85965</v>
+        <v>118287</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>169</v>
+      </c>
+      <c r="I11" s="7">
+        <v>119763</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="7">
-        <v>130</v>
-      </c>
-      <c r="I11" s="7">
-        <v>86275</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>330</v>
+      </c>
+      <c r="N11" s="7">
+        <v>238051</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>250</v>
-      </c>
-      <c r="N11" s="7">
-        <v>172240</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>207</v>
@@ -3346,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3361,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3376,10 +3376,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2662FE01-7180-4FE0-88A3-D09FE54DB8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7B2C1-4C0E-4477-A3A4-ACB60E9D4292}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3835,10 +3835,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>240842</v>
+        <v>146961</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>244</v>
@@ -3850,10 +3850,10 @@
         <v>246</v>
       </c>
       <c r="H7" s="7">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="I7" s="7">
-        <v>219830</v>
+        <v>137410</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>247</v>
@@ -3865,10 +3865,10 @@
         <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>572</v>
+        <v>393</v>
       </c>
       <c r="N7" s="7">
-        <v>460673</v>
+        <v>284370</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>250</v>
@@ -3886,10 +3886,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7">
-        <v>156687</v>
+        <v>53010</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>253</v>
@@ -3901,10 +3901,10 @@
         <v>255</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>126289</v>
+        <v>57320</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>256</v>
@@ -3916,10 +3916,10 @@
         <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>282975</v>
+        <v>110331</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>259</v>
@@ -3937,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>397529</v>
+        <v>199971</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3952,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>457</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>346119</v>
+        <v>194730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3967,10 +3967,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>930</v>
+        <v>541</v>
       </c>
       <c r="N9" s="7">
-        <v>743648</v>
+        <v>394701</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3990,10 +3990,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7">
-        <v>146961</v>
+        <v>240842</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>262</v>
@@ -4005,10 +4005,10 @@
         <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="I10" s="7">
-        <v>137410</v>
+        <v>219830</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>265</v>
@@ -4020,10 +4020,10 @@
         <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>393</v>
+        <v>572</v>
       </c>
       <c r="N10" s="7">
-        <v>284370</v>
+        <v>460673</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>268</v>
@@ -4041,10 +4041,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>53010</v>
+        <v>156687</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>271</v>
@@ -4056,10 +4056,10 @@
         <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I11" s="7">
-        <v>57320</v>
+        <v>126289</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>274</v>
@@ -4071,10 +4071,10 @@
         <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="N11" s="7">
-        <v>110331</v>
+        <v>282975</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>277</v>
@@ -4092,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="D12" s="7">
-        <v>199971</v>
+        <v>397529</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4107,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>276</v>
+        <v>457</v>
       </c>
       <c r="I12" s="7">
-        <v>194730</v>
+        <v>346119</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4122,10 +4122,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>541</v>
+        <v>930</v>
       </c>
       <c r="N12" s="7">
-        <v>394701</v>
+        <v>743648</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A821325-6444-4E7B-89FA-E1DA0482512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{905610B1-EF20-4074-946C-CBF101A359A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C819D5EA-03BC-4BD0-B629-2F498BDDCBC3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CB0E072-1AD5-467C-957C-9011A7CF80B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -68,871 +68,1042 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1114,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1039,39 +1210,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1123,7 +1294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1234,13 +1405,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1249,6 +1413,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1313,19 +1484,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753B87E1-702D-4701-9990-473468BCADC6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A313178-71BE-466B-AA82-B11BBA596735}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1442,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>212867</v>
+        <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1457,85 +1648,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>198302</v>
+        <v>846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1496</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>620</v>
-      </c>
-      <c r="N4" s="7">
-        <v>411169</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>181</v>
+      </c>
+      <c r="D5" s="7">
+        <v>120730</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10294</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>161</v>
+      </c>
+      <c r="I5" s="7">
+        <v>105325</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11894</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>342</v>
+      </c>
+      <c r="N5" s="7">
+        <v>226055</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>34</v>
-      </c>
-      <c r="N5" s="7">
-        <v>22188</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,153 +1735,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>142807</v>
+        <v>54166</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>83</v>
+      </c>
+      <c r="I7" s="7">
+        <v>56662</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>165</v>
+      </c>
+      <c r="N7" s="7">
+        <v>110828</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>196</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131012</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>412</v>
-      </c>
-      <c r="N7" s="7">
-        <v>273820</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>75234</v>
+        <v>199590</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>296</v>
+      </c>
+      <c r="I8" s="7">
+        <v>196543</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>596</v>
+      </c>
+      <c r="N8" s="7">
+        <v>396133</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>108</v>
-      </c>
-      <c r="I8" s="7">
-        <v>74210</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>222</v>
-      </c>
-      <c r="N8" s="7">
-        <v>149443</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,153 +1890,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>155702</v>
+        <v>69826</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>101</v>
+      </c>
+      <c r="I10" s="7">
+        <v>68652</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>205</v>
+      </c>
+      <c r="N10" s="7">
+        <v>138478</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>194</v>
-      </c>
-      <c r="I10" s="7">
-        <v>129705</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>429</v>
-      </c>
-      <c r="N10" s="7">
-        <v>285406</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>125796</v>
+        <v>71689</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>90</v>
+      </c>
+      <c r="I11" s="7">
+        <v>58896</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>198</v>
+      </c>
+      <c r="N11" s="7">
+        <v>130585</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>199</v>
-      </c>
-      <c r="I11" s="7">
-        <v>135207</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>386</v>
-      </c>
-      <c r="N11" s="7">
-        <v>261004</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,153 +2045,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>264912</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>815</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>546410</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>769</v>
+        <v>130</v>
       </c>
       <c r="D13" s="7">
-        <v>511376</v>
+        <v>86682</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>140</v>
+      </c>
+      <c r="I13" s="7">
+        <v>95151</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>692</v>
-      </c>
-      <c r="I13" s="7">
-        <v>459019</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>270</v>
+      </c>
+      <c r="N13" s="7">
+        <v>181833</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N13" s="7">
-        <v>970395</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>211324</v>
+        <v>119367</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
+        <v>145</v>
+      </c>
+      <c r="I14" s="7">
+        <v>98255</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
+      <c r="M14" s="7">
         <v>325</v>
       </c>
-      <c r="I14" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>217622</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>642</v>
-      </c>
-      <c r="N14" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,55 +2200,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>285</v>
+      </c>
+      <c r="I15" s="7">
+        <v>193406</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>595</v>
+      </c>
+      <c r="N15" s="7">
+        <v>399455</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>317</v>
+      </c>
+      <c r="D16" s="7">
+        <v>211324</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>325</v>
+      </c>
+      <c r="I16" s="7">
+        <v>221311</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>642</v>
+      </c>
+      <c r="N16" s="7">
+        <v>432635</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>769</v>
+      </c>
+      <c r="D17" s="7">
+        <v>511376</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>692</v>
+      </c>
+      <c r="I17" s="7">
+        <v>459019</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1461</v>
+      </c>
+      <c r="N17" s="7">
+        <v>970395</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1017</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>680330</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2103</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403030</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2070,8 +2422,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877B465B-2723-4AEF-99EE-2432B32FEDB2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8351E6C3-CE29-4B0E-84F9-93276017087E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2087,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2188,100 +2540,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>323</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>228197</v>
+        <v>669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>215758</v>
+        <v>1908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>443955</v>
+        <v>2576</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>8898</v>
+        <v>143252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="I5" s="7">
-        <v>9750</v>
+        <v>144853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="N5" s="7">
-        <v>18648</v>
+        <v>288106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,153 +2642,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7">
-        <v>237095</v>
+        <v>143921</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>674</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462603</v>
+        <v>290682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>147698</v>
+        <v>70497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>145109</v>
+        <v>54333</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>408</v>
+        <v>172</v>
       </c>
       <c r="N7" s="7">
-        <v>292807</v>
+        <v>124829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="D8" s="7">
-        <v>93548</v>
+        <v>197750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="I8" s="7">
-        <v>84363</v>
+        <v>181917</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>541</v>
       </c>
       <c r="N8" s="7">
-        <v>177911</v>
+        <v>379668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,153 +2797,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>241246</v>
+        <v>268247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="N9" s="7">
-        <v>470718</v>
+        <v>504497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>156102</v>
+        <v>72882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>131478</v>
+        <v>82348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>416</v>
+        <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>287580</v>
+        <v>155230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7">
-        <v>114956</v>
+        <v>85689</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>124933</v>
+        <v>74695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="N11" s="7">
-        <v>239889</v>
+        <v>160384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,153 +2952,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>271058</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>764</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>527469</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>760</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7">
-        <v>531997</v>
+        <v>73356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>711</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>492345</v>
+        <v>80458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1471</v>
+        <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>1024342</v>
+        <v>153813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>217403</v>
+        <v>105306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="I14" s="7">
-        <v>219046</v>
+        <v>90879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="N14" s="7">
-        <v>436449</v>
+        <v>196186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,55 +3107,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>263</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178662</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>506</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349999</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>308</v>
+      </c>
+      <c r="D16" s="7">
+        <v>217403</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>314</v>
+      </c>
+      <c r="I16" s="7">
+        <v>219046</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>622</v>
+      </c>
+      <c r="N16" s="7">
+        <v>436449</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>760</v>
+      </c>
+      <c r="D17" s="7">
+        <v>531997</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
+        <v>711</v>
+      </c>
+      <c r="I17" s="7">
+        <v>492345</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1471</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1024342</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1068</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>749400</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1025</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>711391</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2093</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1460791</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2816,8 +3329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B91F179-45BB-42DD-8547-8232018C3FBD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573913D-B1B0-440C-A7F0-CC5B8D4D0B14}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2833,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2934,100 +3447,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>206702</v>
+        <v>634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>194010</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>625</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>400713</v>
+        <v>634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>6461</v>
+        <v>123530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>7258</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="N5" s="7">
-        <v>13718</v>
+        <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,153 +3549,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7">
-        <v>164087</v>
+        <v>56411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>149058</v>
+        <v>46030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>473</v>
+        <v>151</v>
       </c>
       <c r="N7" s="7">
-        <v>313145</v>
+        <v>102441</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>85965</v>
+        <v>201650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="I8" s="7">
-        <v>86275</v>
+        <v>164487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>561</v>
       </c>
       <c r="N8" s="7">
-        <v>172240</v>
+        <v>366137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,153 +3704,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>119</v>
+      </c>
+      <c r="D10" s="7">
+        <v>86432</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="7">
-        <v>163342</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="I10" s="7">
-        <v>148007</v>
+        <v>82919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="N10" s="7">
-        <v>311348</v>
+        <v>169351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7">
-        <v>118287</v>
+        <v>102140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>119763</v>
+        <v>105980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="N11" s="7">
-        <v>238051</v>
+        <v>208120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,153 +3859,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>774</v>
+        <v>91</v>
       </c>
       <c r="D13" s="7">
-        <v>534131</v>
+        <v>67237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="7">
+        <v>120</v>
+      </c>
+      <c r="I13" s="7">
+        <v>84347</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="7">
         <v>211</v>
       </c>
-      <c r="H13" s="7">
-        <v>750</v>
-      </c>
-      <c r="I13" s="7">
-        <v>491075</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1524</v>
-      </c>
       <c r="N13" s="7">
-        <v>1025207</v>
+        <v>151583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>210713</v>
+        <v>106811</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="I14" s="7">
-        <v>213296</v>
+        <v>88954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>602</v>
+        <v>270</v>
       </c>
       <c r="N14" s="7">
-        <v>424008</v>
+        <v>195765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,55 +4014,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>291</v>
+      </c>
+      <c r="D16" s="7">
+        <v>210713</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="7">
+        <v>311</v>
+      </c>
+      <c r="I16" s="7">
+        <v>213296</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16" s="7">
+        <v>602</v>
+      </c>
+      <c r="N16" s="7">
+        <v>424008</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>774</v>
+      </c>
+      <c r="D17" s="7">
+        <v>534131</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="7">
+        <v>750</v>
+      </c>
+      <c r="I17" s="7">
+        <v>491075</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1524</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1025207</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3562,8 +4236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7B2C1-4C0E-4477-A3A4-ACB60E9D4292}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7355B364-A6D2-4157-B8D9-7352A4E4E33D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3579,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3680,100 +4354,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>105010</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>93769</v>
+        <v>2618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
-        <v>385</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>198780</v>
+        <v>4642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>11967</v>
+        <v>56058</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="I5" s="7">
-        <v>8003</v>
+        <v>53930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>19969</v>
+        <v>109987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,153 +4456,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7">
-        <v>116977</v>
+        <v>58081</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>101772</v>
+        <v>56548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="N6" s="7">
-        <v>218749</v>
+        <v>114629</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>146961</v>
+        <v>33839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>137410</v>
+        <v>37062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>284370</v>
+        <v>70901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="D8" s="7">
-        <v>53010</v>
+        <v>138996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="I8" s="7">
-        <v>57320</v>
+        <v>117775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>415</v>
       </c>
       <c r="N8" s="7">
-        <v>110331</v>
+        <v>256771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,153 +4611,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>199971</v>
+        <v>172835</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="I9" s="7">
-        <v>194730</v>
+        <v>154837</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="N9" s="7">
-        <v>394701</v>
+        <v>327672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>240842</v>
+        <v>85391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>219830</v>
+        <v>52446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
-        <v>572</v>
+        <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>460673</v>
+        <v>137836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7">
-        <v>156687</v>
+        <v>113927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>126289</v>
+        <v>119406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="N11" s="7">
-        <v>282975</v>
+        <v>233334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,153 +4766,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>473</v>
+        <v>239</v>
       </c>
       <c r="D12" s="7">
-        <v>397529</v>
+        <v>199318</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>457</v>
+        <v>228</v>
       </c>
       <c r="I12" s="7">
-        <v>346119</v>
+        <v>171852</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>930</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>743648</v>
+        <v>371170</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>690</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>492814</v>
+        <v>100410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
-        <v>660</v>
+        <v>138</v>
       </c>
       <c r="I13" s="7">
-        <v>451009</v>
+        <v>99486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
-        <v>1350</v>
+        <v>252</v>
       </c>
       <c r="N13" s="7">
-        <v>943823</v>
+        <v>199896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>221663</v>
+        <v>183833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="I14" s="7">
-        <v>191612</v>
+        <v>159898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
-        <v>541</v>
+        <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>413275</v>
+        <v>343731</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,55 +4921,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>336</v>
+      </c>
+      <c r="D15" s="7">
+        <v>284243</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259384</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>677</v>
+      </c>
+      <c r="N15" s="7">
+        <v>543627</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>273</v>
+      </c>
+      <c r="D16" s="7">
+        <v>221663</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="7">
+        <v>268</v>
+      </c>
+      <c r="I16" s="7">
+        <v>191612</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M16" s="7">
+        <v>541</v>
+      </c>
+      <c r="N16" s="7">
+        <v>413275</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>690</v>
+      </c>
+      <c r="D17" s="7">
+        <v>492814</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" s="7">
+        <v>660</v>
+      </c>
+      <c r="I17" s="7">
+        <v>451009</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1350</v>
+      </c>
+      <c r="N17" s="7">
+        <v>943823</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>963</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>714477</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>928</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>642621</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1891</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1357098</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905610B1-EF20-4074-946C-CBF101A359A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40953F8-B50C-4D1D-8711-F8866F982915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CB0E072-1AD5-467C-957C-9011A7CF80B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F5B4EFE-BDCB-4433-825A-AEC721C94FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>96,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>95,25%</t>
+    <t>95,43%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,55 +128,55 @@
     <t>21,35%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -185,55 +185,55 @@
     <t>49,34%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>53,82%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>46,18%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -242,868 +242,868 @@
     <t>42,07%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>56,1%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>36,77%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>71,66%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A313178-71BE-466B-AA82-B11BBA596735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7ECA56-E333-45F2-BEBF-7CD3E483F503}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8351E6C3-CE29-4B0E-84F9-93276017087E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A695EA-050D-4B9A-8174-F24651D377DC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3169,10 +3169,10 @@
         <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>314</v>
@@ -3181,13 +3181,13 @@
         <v>219046</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>622</v>
@@ -3196,13 +3196,13 @@
         <v>436449</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3217,13 @@
         <v>531997</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>711</v>
@@ -3232,13 +3232,13 @@
         <v>492345</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>1471</v>
@@ -3247,13 +3247,13 @@
         <v>1024342</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573913D-B1B0-440C-A7F0-CC5B8D4D0B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1B59-DA8B-4F40-B291-31A2D1D6E720}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3453,13 +3453,13 @@
         <v>634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3483,13 +3483,13 @@
         <v>634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,10 +3504,10 @@
         <v>123530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3522,7 +3522,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3534,10 +3534,10 @@
         <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3611,10 +3611,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3623,13 +3623,13 @@
         <v>46030</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -3641,10 +3641,10 @@
         <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,10 +3662,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>261</v>
@@ -3674,13 +3674,13 @@
         <v>164487</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>561</v>
@@ -3692,10 +3692,10 @@
         <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>86432</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -3778,13 +3778,13 @@
         <v>82919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -3793,13 +3793,13 @@
         <v>169351</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3814,13 @@
         <v>102140</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -3829,7 +3829,7 @@
         <v>105980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>229</v>
@@ -3921,10 +3921,10 @@
         <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -3933,13 +3933,13 @@
         <v>84347</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -3948,13 +3948,13 @@
         <v>151583</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3969,13 @@
         <v>106811</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -3984,13 +3984,13 @@
         <v>88954</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>270</v>
@@ -3999,13 +3999,13 @@
         <v>195765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4073,13 @@
         <v>210713</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>311</v>
@@ -4088,13 +4088,13 @@
         <v>213296</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -4103,13 +4103,13 @@
         <v>424008</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4124,13 @@
         <v>534131</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -4139,13 +4139,13 @@
         <v>491075</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -4154,13 +4154,13 @@
         <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7355B364-A6D2-4157-B8D9-7352A4E4E33D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FDC48F-2731-48E4-BC51-F449608B1284}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4253,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4360,13 +4360,13 @@
         <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4375,13 +4375,13 @@
         <v>2618</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4390,13 +4390,13 @@
         <v>4642</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4411,13 @@
         <v>56058</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>104</v>
@@ -4426,13 +4426,13 @@
         <v>53930</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -4441,13 +4441,13 @@
         <v>109987</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>33839</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -4530,13 +4530,13 @@
         <v>37062</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -4545,13 +4545,13 @@
         <v>70901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4566,13 @@
         <v>138996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -4581,13 +4581,13 @@
         <v>117775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>415</v>
@@ -4596,13 +4596,13 @@
         <v>256771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4670,13 @@
         <v>85391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -4685,13 +4685,13 @@
         <v>52446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4700,13 +4700,13 @@
         <v>137836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4721,13 @@
         <v>113927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -4736,13 +4736,13 @@
         <v>119406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -4751,13 +4751,13 @@
         <v>233334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4825,13 @@
         <v>100410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -4840,13 +4840,13 @@
         <v>99486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
@@ -4855,13 +4855,13 @@
         <v>199896</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4876,13 @@
         <v>183833</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -4891,10 +4891,10 @@
         <v>159898</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>335</v>
@@ -4995,7 +4995,7 @@
         <v>191612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>342</v>
@@ -5046,7 +5046,7 @@
         <v>451009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>350</v>

--- a/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40953F8-B50C-4D1D-8711-F8866F982915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E4FA82-D814-4245-A25C-C0CC6F873155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F5B4EFE-BDCB-4433-825A-AEC721C94FCD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{617FFD2F-7504-48DC-A0E5-F0969D86DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="361">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,49 +74,49 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,74%</t>
+    <t>97,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,985 +125,1003 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>45,52%</t>
   </si>
   <si>
-    <t>41,55%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>72,36%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7ECA56-E333-45F2-BEBF-7CD3E483F503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ABFE5-A9DF-4710-A3F4-F2AF72181786}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>650</v>
+        <v>846</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1651,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>846</v>
+        <v>650</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1684,10 +1702,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>120730</v>
+        <v>105325</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1699,10 +1717,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>105325</v>
+        <v>120730</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1735,25 +1753,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1788,10 +1806,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>54166</v>
+        <v>56662</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1803,10 +1821,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>56662</v>
+        <v>54166</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1839,10 +1857,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D8" s="7">
-        <v>199590</v>
+        <v>196543</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1854,10 +1872,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>196543</v>
+        <v>199590</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1890,25 +1908,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1943,10 +1961,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7">
-        <v>69826</v>
+        <v>68652</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1958,10 +1976,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>68652</v>
+        <v>69826</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -1994,10 +2012,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>71689</v>
+        <v>58896</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -2009,10 +2027,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I11" s="7">
-        <v>58896</v>
+        <v>71689</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -2045,25 +2063,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2098,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D13" s="7">
-        <v>86682</v>
+        <v>95151</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
@@ -2113,10 +2131,10 @@
         <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I13" s="7">
-        <v>95151</v>
+        <v>86682</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
@@ -2149,10 +2167,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7">
-        <v>119367</v>
+        <v>98255</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -2164,10 +2182,10 @@
         <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>98255</v>
+        <v>119367</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -2200,25 +2218,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>193406</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>193406</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2253,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D16" s="7">
-        <v>211324</v>
+        <v>221311</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2268,10 +2286,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I16" s="7">
-        <v>221311</v>
+        <v>211324</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2304,10 +2322,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="D17" s="7">
-        <v>511376</v>
+        <v>459019</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2319,10 +2337,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="I17" s="7">
-        <v>459019</v>
+        <v>511376</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2355,25 +2373,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="7">
+        <v>680330</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>680330</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -2422,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A695EA-050D-4B9A-8174-F24651D377DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2726A0-AA98-4755-827F-3C1365DC2EEE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,31 +2558,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>669</v>
+        <v>1908</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>669</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1908</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>108</v>
@@ -2591,10 +2609,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D5" s="7">
-        <v>143252</v>
+        <v>144853</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>112</v>
@@ -2603,22 +2621,22 @@
         <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
+        <v>203</v>
+      </c>
+      <c r="I5" s="7">
+        <v>143252</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>216</v>
-      </c>
-      <c r="I5" s="7">
-        <v>144853</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -2642,25 +2660,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>204</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>143921</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -2695,10 +2713,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>70497</v>
+        <v>54333</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>120</v>
@@ -2710,10 +2728,10 @@
         <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>54333</v>
+        <v>70497</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>123</v>
@@ -2746,10 +2764,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>197750</v>
+        <v>181917</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>129</v>
@@ -2761,10 +2779,10 @@
         <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I8" s="7">
-        <v>181917</v>
+        <v>197750</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>132</v>
@@ -2797,25 +2815,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268247</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2850,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>72882</v>
+        <v>82348</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>138</v>
@@ -2865,10 +2883,10 @@
         <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>82348</v>
+        <v>72882</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>141</v>
@@ -2901,10 +2919,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>85689</v>
+        <v>74695</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>147</v>
@@ -2916,10 +2934,10 @@
         <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>74695</v>
+        <v>85689</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>150</v>
@@ -2952,25 +2970,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3005,10 +3023,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7">
-        <v>73356</v>
+        <v>80458</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>156</v>
@@ -3020,10 +3038,10 @@
         <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I13" s="7">
-        <v>80458</v>
+        <v>73356</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>159</v>
@@ -3056,10 +3074,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>105306</v>
+        <v>90879</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>165</v>
@@ -3071,10 +3089,10 @@
         <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I14" s="7">
-        <v>90879</v>
+        <v>105306</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>168</v>
@@ -3107,25 +3125,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>178662</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3160,34 +3178,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D16" s="7">
-        <v>217403</v>
+        <v>219046</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I16" s="7">
-        <v>219046</v>
+        <v>217403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>622</v>
@@ -3196,13 +3214,13 @@
         <v>436449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,34 +3229,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>711</v>
+      </c>
+      <c r="D17" s="7">
+        <v>492345</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
         <v>760</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>531997</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7">
-        <v>711</v>
-      </c>
-      <c r="I17" s="7">
-        <v>492345</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>1471</v>
@@ -3247,13 +3265,13 @@
         <v>1024342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,25 +3280,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D18" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1068</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>749400</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -3329,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE1B59-DA8B-4F40-B291-31A2D1D6E720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAF7E4C-91B2-430C-926B-8D0F3F36EE98}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +3364,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3447,34 +3465,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>634</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3483,13 +3501,13 @@
         <v>634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,34 +3516,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
         <v>186</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>123530</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -3534,10 +3552,10 @@
         <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3549,25 +3567,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3602,34 +3620,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7">
+        <v>46030</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="7">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>56411</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="7">
-        <v>71</v>
-      </c>
-      <c r="I7" s="7">
-        <v>46030</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -3641,10 +3659,10 @@
         <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,34 +3671,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>261</v>
+      </c>
+      <c r="D8" s="7">
+        <v>164487</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="7">
         <v>300</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>201650</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="7">
-        <v>261</v>
-      </c>
-      <c r="I8" s="7">
-        <v>164487</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>561</v>
@@ -3692,10 +3710,10 @@
         <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,25 +3722,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3757,34 +3775,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7">
+        <v>82919</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="7">
         <v>119</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>86432</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="7">
-        <v>120</v>
-      </c>
-      <c r="I10" s="7">
-        <v>82919</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -3793,13 +3811,13 @@
         <v>169351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,34 +3826,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>152</v>
+      </c>
+      <c r="D11" s="7">
+        <v>105980</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="7">
         <v>144</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>102140</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="7">
-        <v>152</v>
-      </c>
-      <c r="I11" s="7">
-        <v>105980</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -3844,13 +3862,13 @@
         <v>208120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,25 +3877,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3912,34 +3930,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7">
+        <v>84347</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>91</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>67237</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="7">
-        <v>120</v>
-      </c>
-      <c r="I13" s="7">
-        <v>84347</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -3948,13 +3966,13 @@
         <v>151583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,34 +3981,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>126</v>
+      </c>
+      <c r="D14" s="7">
+        <v>88954</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="7">
         <v>144</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>106811</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="7">
-        <v>126</v>
-      </c>
-      <c r="I14" s="7">
-        <v>88954</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>270</v>
@@ -3999,13 +4017,13 @@
         <v>195765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,25 +4032,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4067,34 +4085,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>311</v>
+      </c>
+      <c r="D16" s="7">
+        <v>213296</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
         <v>291</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>210713</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H16" s="7">
-        <v>311</v>
-      </c>
-      <c r="I16" s="7">
-        <v>213296</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -4103,13 +4121,13 @@
         <v>424008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,34 +4136,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>750</v>
+      </c>
+      <c r="D17" s="7">
+        <v>491075</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="7">
         <v>774</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>534131</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="7">
-        <v>750</v>
-      </c>
-      <c r="I17" s="7">
-        <v>491075</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -4154,13 +4172,13 @@
         <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,25 +4187,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -4236,7 +4254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FDC48F-2731-48E4-BC51-F449608B1284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E15FB5C-8C16-448E-B476-4415E4389750}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4253,7 +4271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4354,49 +4372,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2516</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
       <c r="I4" s="7">
-        <v>2618</v>
+        <v>2052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>4642</v>
+        <v>4567</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,49 +4423,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54154</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="7">
         <v>112</v>
       </c>
-      <c r="D5" s="7">
-        <v>56058</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H5" s="7">
-        <v>104</v>
-      </c>
       <c r="I5" s="7">
-        <v>53930</v>
+        <v>58966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>109987</v>
+        <v>113120</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,25 +4474,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56670</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>115</v>
       </c>
-      <c r="D6" s="7">
-        <v>58081</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
       <c r="I6" s="7">
-        <v>56548</v>
+        <v>61018</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -4489,7 +4507,7 @@
         <v>223</v>
       </c>
       <c r="N6" s="7">
-        <v>114629</v>
+        <v>117687</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -4509,49 +4527,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>56</v>
+      </c>
+      <c r="D7" s="7">
+        <v>36465</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="7">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
-        <v>33839</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="7">
-        <v>56</v>
-      </c>
       <c r="I7" s="7">
-        <v>37062</v>
+        <v>35430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>70901</v>
+        <v>71895</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,49 +4578,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>195</v>
+      </c>
+      <c r="D8" s="7">
+        <v>118578</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="7">
         <v>220</v>
       </c>
-      <c r="D8" s="7">
-        <v>138996</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H8" s="7">
-        <v>195</v>
-      </c>
       <c r="I8" s="7">
-        <v>117775</v>
+        <v>144495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>415</v>
       </c>
       <c r="N8" s="7">
-        <v>256771</v>
+        <v>263073</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,25 +4629,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>251</v>
+      </c>
+      <c r="D9" s="7">
+        <v>155043</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>172835</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>251</v>
-      </c>
       <c r="I9" s="7">
-        <v>154837</v>
+        <v>179925</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -4644,7 +4662,7 @@
         <v>524</v>
       </c>
       <c r="N9" s="7">
-        <v>327672</v>
+        <v>334968</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -4664,49 +4682,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7">
+        <v>51683</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="7">
         <v>103</v>
       </c>
-      <c r="D10" s="7">
-        <v>85391</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="7">
-        <v>70</v>
-      </c>
       <c r="I10" s="7">
-        <v>52446</v>
+        <v>89994</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>137836</v>
+        <v>141676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,49 +4733,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>117371</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="7">
         <v>136</v>
       </c>
-      <c r="D11" s="7">
-        <v>113927</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
       <c r="I11" s="7">
-        <v>119406</v>
+        <v>119152</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
       </c>
       <c r="N11" s="7">
-        <v>233334</v>
+        <v>236524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,25 +4784,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>228</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169054</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>239</v>
       </c>
-      <c r="D12" s="7">
-        <v>199318</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>228</v>
-      </c>
       <c r="I12" s="7">
-        <v>171852</v>
+        <v>209146</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -4799,7 +4817,7 @@
         <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>371170</v>
+        <v>378200</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -4819,49 +4837,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>138</v>
+      </c>
+      <c r="D13" s="7">
+        <v>98549</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="7">
         <v>114</v>
       </c>
-      <c r="D13" s="7">
-        <v>100410</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="7">
-        <v>138</v>
-      </c>
       <c r="I13" s="7">
-        <v>99486</v>
+        <v>107969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
       </c>
       <c r="N13" s="7">
-        <v>199896</v>
+        <v>206518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,49 +4888,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>203</v>
+      </c>
+      <c r="D14" s="7">
+        <v>175859</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="7">
         <v>222</v>
       </c>
-      <c r="D14" s="7">
-        <v>183833</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="7">
-        <v>203</v>
-      </c>
       <c r="I14" s="7">
-        <v>159898</v>
+        <v>192314</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>343731</v>
+        <v>368173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,25 +4939,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274408</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>336</v>
       </c>
-      <c r="D15" s="7">
-        <v>284243</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259384</v>
+        <v>300283</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4954,7 +4972,7 @@
         <v>677</v>
       </c>
       <c r="N15" s="7">
-        <v>543627</v>
+        <v>574691</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4974,49 +4992,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>268</v>
+      </c>
+      <c r="D16" s="7">
+        <v>189213</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" s="7">
         <v>273</v>
       </c>
-      <c r="D16" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" s="7">
-        <v>268</v>
-      </c>
       <c r="I16" s="7">
-        <v>191612</v>
+        <v>235444</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>413275</v>
+        <v>424657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5043,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>660</v>
+      </c>
+      <c r="D17" s="7">
+        <v>465962</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="7">
         <v>690</v>
       </c>
-      <c r="D17" s="7">
-        <v>492814</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="7">
-        <v>660</v>
-      </c>
       <c r="I17" s="7">
-        <v>451009</v>
+        <v>514927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>1350</v>
       </c>
       <c r="N17" s="7">
-        <v>943823</v>
+        <v>980889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,25 +5094,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>928</v>
+      </c>
+      <c r="D18" s="7">
+        <v>655175</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>963</v>
       </c>
-      <c r="D18" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>928</v>
-      </c>
       <c r="I18" s="7">
-        <v>642621</v>
+        <v>750371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -5109,7 +5127,7 @@
         <v>1891</v>
       </c>
       <c r="N18" s="7">
-        <v>1357098</v>
+        <v>1405546</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
